--- a/exp/exp1/exp1_0129.xlsx
+++ b/exp/exp1/exp1_0129.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kai\Dropbox\USC\publication\TSG\src\exp\exp1\"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="13">
   <si>
     <t>i</t>
   </si>
@@ -1860,8 +1860,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.21691716229874269"/>
           <c:y val="8.0988380288781039E-2"/>
-          <c:w val="0.29974688046980646"/>
-          <c:h val="0.23871813977217046"/>
+          <c:w val="0.3443981351988637"/>
+          <c:h val="0.29812400925131882"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1930,6 +1930,602 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17752804492904814"/>
+          <c:y val="3.3136850260129698E-2"/>
+          <c:w val="0.78348828900924594"/>
+          <c:h val="0.76465174677592784"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>s-uniform</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>exp1_0128_2200!$M$37:$M$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>exp1_0128_2200!$N$37:$N$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.1018921314755985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0757552529681631</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0588334086459743</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0565729372311152</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0535748921178962</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0523415719200118</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0510921442800742</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.051821788003402</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0496886664936969</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0493865030076595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB99-4D53-9334-BBEB51E3E5B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>MHR</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>exp1_0128_2200!$M$37:$M$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>exp1_0128_2200!$O$37:$O$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.2178762121437083</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1968205618646164</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1742518822077328</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.162248920796034</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1702726113951381</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1628286285872864</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1606008212133569</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1603501712943169</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.162770297492522</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1597870639976704</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DB99-4D53-9334-BBEB51E3E5B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1701791951"/>
+        <c:axId val="1694945183"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1701791951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" b="1"/>
+                  <a:t># Pure Strategies</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1694945183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1694945183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.22"/>
+          <c:min val="1.04"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" b="1"/>
+                  <a:t>Price of Usability</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1701791951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32224778617736305"/>
+          <c:y val="4.0712468193384227E-2"/>
+          <c:w val="0.56553229394420068"/>
+          <c:h val="0.11032951475722971"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0" l="0" r="0" t="0" header="0" footer="0"/>
+    <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1971,6 +2567,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3042,6 +3678,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3111,6 +4263,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>342899</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB5E54A6-5297-4495-BFF9-E1A7B6AADD60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3416,10 +4604,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AE210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AG19" sqref="AG19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE15" sqref="AE15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5002,7 +6191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -5037,7 +6226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -5072,7 +6261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -5107,7 +6296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -5141,8 +6330,23 @@
       <c r="K36" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M36" t="s">
+        <v>7</v>
+      </c>
+      <c r="N36" t="s">
+        <v>8</v>
+      </c>
+      <c r="O36" t="s">
+        <v>9</v>
+      </c>
+      <c r="P36" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -5176,8 +6380,19 @@
       <c r="K37" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <f>N2/Q2</f>
+        <v>1.1018921314755985</v>
+      </c>
+      <c r="O37">
+        <f>O2/Q2</f>
+        <v>1.2178762121437083</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -5211,8 +6426,19 @@
       <c r="K38" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <v>2</v>
+      </c>
+      <c r="N38">
+        <f t="shared" ref="N38:N46" si="1">N3/Q3</f>
+        <v>1.0757552529681631</v>
+      </c>
+      <c r="O38">
+        <f t="shared" ref="O38:O46" si="2">O3/Q3</f>
+        <v>1.1968205618646164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -5246,8 +6472,19 @@
       <c r="K39" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <v>3</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="1"/>
+        <v>1.0588334086459743</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="2"/>
+        <v>1.1742518822077328</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -5281,8 +6518,19 @@
       <c r="K40" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <v>4</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="1"/>
+        <v>1.0565729372311152</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="2"/>
+        <v>1.162248920796034</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -5316,8 +6564,19 @@
       <c r="K41" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <v>5</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="1"/>
+        <v>1.0535748921178962</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="2"/>
+        <v>1.1702726113951381</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -5351,8 +6610,19 @@
       <c r="K42" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <v>6</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="1"/>
+        <v>1.0523415719200118</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="2"/>
+        <v>1.1628286285872864</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -5386,8 +6656,19 @@
       <c r="K43" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <v>7</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="1"/>
+        <v>1.0510921442800742</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="2"/>
+        <v>1.1606008212133569</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -5421,8 +6702,19 @@
       <c r="K44" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <v>8</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="1"/>
+        <v>1.051821788003402</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="2"/>
+        <v>1.1603501712943169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -5456,8 +6748,19 @@
       <c r="K45" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <v>9</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="1"/>
+        <v>1.0496886664936969</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="2"/>
+        <v>1.162770297492522</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -5491,8 +6794,19 @@
       <c r="K46" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <v>10</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="1"/>
+        <v>1.0493865030076595</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="2"/>
+        <v>1.1597870639976704</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -5527,7 +6841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>0</v>
       </c>
